--- a/labs/lab13/excel.xlsx
+++ b/labs/lab13/excel.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franciscocmachado/Desktop/ipm/ipm/labs/lab13/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\IPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22EAACDF-15B6-41D4-8654-BCE49A6B21BD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>Tarefa 1:</t>
   </si>
@@ -72,16 +73,46 @@
     <t>pc</t>
   </si>
   <si>
-    <t>pouco fam</t>
-  </si>
-  <si>
-    <t>mt fam</t>
+    <t>estudante</t>
+  </si>
+  <si>
+    <t>fã</t>
+  </si>
+  <si>
+    <t>mt fã</t>
+  </si>
+  <si>
+    <t>pouco fã</t>
+  </si>
+  <si>
+    <t>23 anos</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Advogada</t>
+  </si>
+  <si>
+    <t>25 anos</t>
+  </si>
+  <si>
+    <t>Advogado</t>
+  </si>
+  <si>
+    <t>Motorista</t>
+  </si>
+  <si>
+    <t>27 anos</t>
+  </si>
+  <si>
+    <t>Cabelareira</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -355,7 +386,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -394,6 +425,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -412,29 +462,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -442,6 +474,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -709,16 +744,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="N4" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,7 +768,7 @@
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="3:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -741,45 +776,45 @@
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="D6" s="24" t="s">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="29" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="23" t="s">
         <v>2</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="M6" s="23" t="s">
         <v>2</v>
       </c>
       <c r="N6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="S6" s="34"/>
-    </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="D7" s="25"/>
-      <c r="E7" s="23"/>
+      <c r="S6" s="22"/>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D7" s="32"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="10"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="29"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="16"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="29"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="24"/>
       <c r="N7" s="16"/>
       <c r="S7" t="s">
         <v>12</v>
@@ -788,7 +823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8" s="3">
         <v>1</v>
       </c>
@@ -829,83 +864,248 @@
         <v>11</v>
       </c>
       <c r="S8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="T8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9" s="3">
         <v>2</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="11"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="18"/>
-    </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D9" s="5">
+        <v>20</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>4</v>
+      </c>
+      <c r="H9" s="17">
+        <v>42</v>
+      </c>
+      <c r="I9" s="17">
+        <v>1</v>
+      </c>
+      <c r="J9" s="18">
+        <v>5</v>
+      </c>
+      <c r="L9" s="17">
+        <v>53</v>
+      </c>
+      <c r="M9" s="17">
+        <v>0</v>
+      </c>
+      <c r="N9" s="18">
+        <v>5</v>
+      </c>
+      <c r="P9" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" t="s">
+        <v>15</v>
+      </c>
+      <c r="T9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="11"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="18"/>
-    </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D10" s="5">
+        <v>18</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>4</v>
+      </c>
+      <c r="H10" s="17">
+        <v>60</v>
+      </c>
+      <c r="I10" s="17">
+        <v>2</v>
+      </c>
+      <c r="J10" s="18">
+        <v>3</v>
+      </c>
+      <c r="L10" s="17">
+        <v>55</v>
+      </c>
+      <c r="M10" s="17">
+        <v>0</v>
+      </c>
+      <c r="N10" s="18">
+        <v>4</v>
+      </c>
+      <c r="P10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" s="3">
         <v>4</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="11"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="18"/>
-    </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D11" s="5">
+        <v>19</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>5</v>
+      </c>
+      <c r="H11" s="17">
+        <v>41</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0</v>
+      </c>
+      <c r="J11" s="18">
+        <v>4</v>
+      </c>
+      <c r="L11" s="17">
+        <v>60</v>
+      </c>
+      <c r="M11" s="17">
+        <v>1</v>
+      </c>
+      <c r="N11" s="18">
+        <v>4</v>
+      </c>
+      <c r="P11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" t="s">
+        <v>15</v>
+      </c>
+      <c r="T11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C12" s="3">
         <v>5</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="11"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="18"/>
-    </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D12" s="5">
+        <v>16</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <v>4</v>
+      </c>
+      <c r="H12" s="17">
+        <v>39</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18">
+        <v>4</v>
+      </c>
+      <c r="L12" s="17">
+        <v>58</v>
+      </c>
+      <c r="M12" s="17">
+        <v>1</v>
+      </c>
+      <c r="N12" s="18">
+        <v>5</v>
+      </c>
+      <c r="P12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" t="s">
+        <v>15</v>
+      </c>
+      <c r="T12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C13" s="3">
         <v>6</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="11"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="18"/>
-    </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D13" s="5">
+        <v>24</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>4</v>
+      </c>
+      <c r="H13" s="17">
+        <v>39</v>
+      </c>
+      <c r="I13" s="17">
+        <v>1</v>
+      </c>
+      <c r="J13" s="18">
+        <v>5</v>
+      </c>
+      <c r="L13" s="17">
+        <v>57</v>
+      </c>
+      <c r="M13" s="17">
+        <v>2</v>
+      </c>
+      <c r="N13" s="18">
+        <v>4</v>
+      </c>
+      <c r="P13" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C14" s="3">
         <v>7</v>
       </c>
@@ -919,7 +1119,7 @@
       <c r="M14" s="17"/>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C15" s="3">
         <v>8</v>
       </c>
@@ -933,7 +1133,7 @@
       <c r="M15" s="17"/>
       <c r="N15" s="18"/>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
         <v>9</v>
       </c>
@@ -947,7 +1147,7 @@
       <c r="M16" s="17"/>
       <c r="N16" s="18"/>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="3">
         <v>10</v>
       </c>
@@ -961,7 +1161,7 @@
       <c r="M17" s="17"/>
       <c r="N17" s="18"/>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="3">
         <v>11</v>
       </c>
@@ -975,7 +1175,7 @@
       <c r="M18" s="17"/>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="3">
         <v>12</v>
       </c>
@@ -989,7 +1189,7 @@
       <c r="M19" s="17"/>
       <c r="N19" s="18"/>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" s="3">
         <v>13</v>
       </c>
@@ -1003,7 +1203,7 @@
       <c r="M20" s="17"/>
       <c r="N20" s="18"/>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C21" s="3">
         <v>14</v>
       </c>
@@ -1017,7 +1217,7 @@
       <c r="M21" s="17"/>
       <c r="N21" s="18"/>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C22" s="3">
         <v>15</v>
       </c>
@@ -1031,7 +1231,7 @@
       <c r="M22" s="17"/>
       <c r="N22" s="18"/>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C23" s="3">
         <v>16</v>
       </c>
@@ -1045,7 +1245,7 @@
       <c r="M23" s="17"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C24" s="3">
         <v>17</v>
       </c>
@@ -1059,7 +1259,7 @@
       <c r="M24" s="17"/>
       <c r="N24" s="18"/>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" s="3">
         <v>18</v>
       </c>
@@ -1073,7 +1273,7 @@
       <c r="M25" s="17"/>
       <c r="N25" s="18"/>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C26" s="3">
         <v>19</v>
       </c>
@@ -1087,7 +1287,7 @@
       <c r="M26" s="17"/>
       <c r="N26" s="18"/>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C27" s="3">
         <v>20</v>
       </c>
@@ -1101,7 +1301,7 @@
       <c r="M27" s="17"/>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C28" s="3">
         <v>21</v>
       </c>
@@ -1115,7 +1315,7 @@
       <c r="M28" s="17"/>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" s="3">
         <v>22</v>
       </c>
@@ -1129,7 +1329,7 @@
       <c r="M29" s="17"/>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C30" s="3">
         <v>23</v>
       </c>
@@ -1143,7 +1343,7 @@
       <c r="M30" s="17"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C31" s="3">
         <v>24</v>
       </c>
@@ -1157,7 +1357,7 @@
       <c r="M31" s="17"/>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C32" s="3">
         <v>25</v>
       </c>
@@ -1171,7 +1371,7 @@
       <c r="M32" s="17"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C33" s="3">
         <v>26</v>
       </c>
@@ -1185,7 +1385,7 @@
       <c r="M33" s="17"/>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C34" s="3">
         <v>27</v>
       </c>
@@ -1199,7 +1399,7 @@
       <c r="M34" s="17"/>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C35" s="3">
         <v>28</v>
       </c>
@@ -1213,7 +1413,7 @@
       <c r="M35" s="17"/>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C36" s="3">
         <v>29</v>
       </c>
@@ -1227,7 +1427,7 @@
       <c r="M36" s="17"/>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="3">
         <v>30</v>
       </c>
@@ -1241,7 +1441,7 @@
       <c r="M37" s="19"/>
       <c r="N37" s="20"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D38" s="7"/>
       <c r="H38" s="13"/>
       <c r="I38" s="14"/>
@@ -1250,53 +1450,53 @@
       <c r="M38" s="14"/>
       <c r="N38" s="14"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B39" s="30" t="s">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="30"/>
+      <c r="C39" s="25"/>
       <c r="D39">
         <f>AVERAGE(D8:D37)</f>
-        <v>18.75</v>
+        <v>19.291666666666668</v>
       </c>
       <c r="E39">
         <f>AVERAGE(E8:E37)</f>
-        <v>2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F39">
         <f>AVERAGE(F8:F37)</f>
-        <v>2</v>
+        <v>3.8333333333333335</v>
       </c>
       <c r="H39">
         <f>AVERAGE(H8:H37)</f>
-        <v>26.5</v>
+        <v>41.25</v>
       </c>
       <c r="I39">
         <f>AVERAGE(I8:I37)</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J39">
         <f>AVERAGE(J8:J37)</f>
-        <v>2</v>
+        <v>3.8333333333333335</v>
       </c>
       <c r="L39">
         <f>AVERAGE(L8:L37)</f>
-        <v>22.1</v>
+        <v>50.85</v>
       </c>
       <c r="M39">
         <f>AVERAGE(M8:M37)</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N39">
         <f>AVERAGE(N8:N37)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+        <v>3.8333333333333335</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
@@ -1304,48 +1504,48 @@
       <c r="M41" s="14"/>
       <c r="N41" s="14"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B42" s="31" t="s">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="8" t="e">
+      <c r="C42" s="27"/>
+      <c r="D42" s="8">
         <f>_xlfn.STDEV.S(D8:D37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E42" s="8" t="e">
+        <v>2.6665364551542692</v>
+      </c>
+      <c r="E42" s="8">
         <f>_xlfn.STDEV.S(E8:E37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F42" s="8" t="e">
+        <v>0.81649658092772603</v>
+      </c>
+      <c r="F42" s="8">
         <f>_xlfn.STDEV.S(F8:F37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H42" s="8" t="e">
+        <v>0.98319208025017457</v>
+      </c>
+      <c r="H42" s="8">
         <f>_xlfn.STDEV.S(H8:H37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I42" s="8" t="e">
+        <v>10.769168955866558</v>
+      </c>
+      <c r="I42" s="8">
         <f>_xlfn.STDEV.S(I8:I37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J42" s="8" t="e">
+        <v>0.81649658092772603</v>
+      </c>
+      <c r="J42" s="8">
         <f>_xlfn.STDEV.S(J8:J37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L42" s="8" t="e">
+        <v>1.1690451944500118</v>
+      </c>
+      <c r="L42" s="8">
         <f>_xlfn.STDEV.S(L8:L37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M42" s="8" t="e">
+        <v>14.290381380495056</v>
+      </c>
+      <c r="M42" s="8">
         <f>_xlfn.STDEV.S(M8:M37)</f>
-        <v>#DIV/0!</v>
+        <v>0.81649658092772603</v>
       </c>
       <c r="N42" s="14" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
       <c r="D43" s="8"/>
@@ -1358,7 +1558,7 @@
       <c r="M43" s="8"/>
       <c r="N43" s="14"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="D44" s="8"/>
@@ -1371,7 +1571,7 @@
       <c r="M44" s="8"/>
       <c r="N44" s="14"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D45" s="8" t="e">
         <f>_xlfn.CONFIDENCE.T(0.05,D41,30)</f>
         <v>#NUM!</v>
@@ -1409,11 +1609,11 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B46" s="33" t="s">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="33"/>
+      <c r="C46" s="28"/>
       <c r="D46" s="8" t="e">
         <f>D39-D45</f>
         <v>#NUM!</v>
@@ -1451,7 +1651,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
       <c r="D47" s="8" t="e">
@@ -1509,21 +1709,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1536,7 +1736,7 @@
         <v>0.6279072163224928</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1545,7 +1745,7 @@
         <v>1.3416407864998736</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1554,7 +1754,7 @@
         <v>2.672092783677507</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1563,77 +1763,77 @@
         <v>3.9279072163224926</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>

--- a/labs/lab13/excel.xlsx
+++ b/labs/lab13/excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\IPM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\IST\2ano\IIPM\git\labs\lab13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22EAACDF-15B6-41D4-8654-BCE49A6B21BD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DE1AE4-26EA-4308-B0BB-3346609959FF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>Tarefa 1:</t>
   </si>
@@ -106,7 +106,22 @@
     <t>27 anos</t>
   </si>
   <si>
-    <t>Cabelareira</t>
+    <t>63 anos</t>
+  </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>0-10</t>
+  </si>
+  <si>
+    <t>16 anos</t>
+  </si>
+  <si>
+    <t>14 anos</t>
+  </si>
+  <si>
+    <t>cabeleireiro</t>
   </si>
 </sst>
 </file>
@@ -426,6 +441,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -462,7 +478,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8" hidden="1"/>
@@ -745,15 +760,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:T47"/>
+  <dimension ref="B4:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N4" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
@@ -768,7 +783,7 @@
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="3:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -776,29 +791,29 @@
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="D6" s="31" t="s">
+    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D6" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="30" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="24" t="s">
         <v>2</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="24" t="s">
         <v>2</v>
       </c>
       <c r="N6" s="15" t="s">
@@ -806,15 +821,15 @@
       </c>
       <c r="S6" s="22"/>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="D7" s="32"/>
-      <c r="E7" s="30"/>
+    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D7" s="33"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="10"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="24"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="25"/>
       <c r="J7" s="16"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="24"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="25"/>
       <c r="N7" s="16"/>
       <c r="S7" t="s">
         <v>12</v>
@@ -823,7 +838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C8" s="3">
         <v>1</v>
       </c>
@@ -834,7 +849,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8" s="17">
         <v>26.5</v>
@@ -843,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L8" s="17">
         <v>22.1</v>
@@ -852,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P8" t="s">
         <v>9</v>
@@ -870,7 +885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C9" s="3">
         <v>2</v>
       </c>
@@ -901,7 +916,7 @@
       <c r="N9" s="18">
         <v>5</v>
       </c>
-      <c r="P9" s="35" t="s">
+      <c r="P9" s="23" t="s">
         <v>9</v>
       </c>
       <c r="Q9" t="s">
@@ -917,7 +932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C10" s="3">
         <v>3</v>
       </c>
@@ -964,7 +979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C11" s="3">
         <v>4</v>
       </c>
@@ -1011,7 +1026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C12" s="3">
         <v>5</v>
       </c>
@@ -1058,7 +1073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C13" s="3">
         <v>6</v>
       </c>
@@ -1089,14 +1104,14 @@
       <c r="N13" s="18">
         <v>4</v>
       </c>
-      <c r="P13" s="35" t="s">
+      <c r="P13" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q13" t="s">
         <v>19</v>
       </c>
       <c r="R13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="S13" t="s">
         <v>17</v>
@@ -1105,47 +1120,155 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C14" s="3">
         <v>7</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="11"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="18"/>
-    </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D14" s="5">
+        <v>28</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11">
+        <v>3</v>
+      </c>
+      <c r="H14" s="17">
+        <v>47</v>
+      </c>
+      <c r="I14" s="17">
+        <v>2</v>
+      </c>
+      <c r="J14" s="18">
+        <v>4</v>
+      </c>
+      <c r="L14" s="17">
+        <v>60</v>
+      </c>
+      <c r="M14" s="17">
+        <v>1</v>
+      </c>
+      <c r="N14" s="18">
+        <v>5</v>
+      </c>
+      <c r="P14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>4</v>
+      </c>
+      <c r="U14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C15" s="3">
         <v>8</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="11"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="18"/>
-    </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D15" s="5">
+        <v>11</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>6</v>
+      </c>
+      <c r="H15" s="17">
+        <v>22</v>
+      </c>
+      <c r="I15" s="17">
+        <v>0</v>
+      </c>
+      <c r="J15" s="18">
+        <v>6</v>
+      </c>
+      <c r="L15" s="17">
+        <v>45</v>
+      </c>
+      <c r="M15" s="17">
+        <v>2</v>
+      </c>
+      <c r="N15" s="18">
+        <v>4</v>
+      </c>
+      <c r="P15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" t="s">
+        <v>14</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>6</v>
+      </c>
+      <c r="U15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
         <v>9</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="11"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="18"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="18"/>
+      <c r="D16" s="5">
+        <v>17</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="11">
+        <v>5</v>
+      </c>
+      <c r="H16" s="17">
+        <v>59</v>
+      </c>
+      <c r="I16" s="17">
+        <v>4</v>
+      </c>
+      <c r="J16" s="18">
+        <v>4</v>
+      </c>
+      <c r="L16" s="17">
+        <v>43</v>
+      </c>
+      <c r="M16" s="17">
+        <v>0</v>
+      </c>
+      <c r="N16" s="18">
+        <v>5</v>
+      </c>
+      <c r="P16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" t="s">
+        <v>14</v>
+      </c>
+      <c r="S16">
+        <v>5</v>
+      </c>
+      <c r="T16">
+        <v>8</v>
+      </c>
+      <c r="U16" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="3">
@@ -1451,45 +1574,45 @@
       <c r="N38" s="14"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="25"/>
+      <c r="C39" s="26"/>
       <c r="D39">
         <f>AVERAGE(D8:D37)</f>
-        <v>19.291666666666668</v>
+        <v>19.083333333333332</v>
       </c>
       <c r="E39">
         <f>AVERAGE(E8:E37)</f>
-        <v>0.33333333333333331</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="F39">
         <f>AVERAGE(F8:F37)</f>
-        <v>3.8333333333333335</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="H39">
         <f>AVERAGE(H8:H37)</f>
-        <v>41.25</v>
+        <v>41.722222222222221</v>
       </c>
       <c r="I39">
         <f>AVERAGE(I8:I37)</f>
-        <v>0.66666666666666663</v>
+        <v>1.1111111111111112</v>
       </c>
       <c r="J39">
         <f>AVERAGE(J8:J37)</f>
-        <v>3.8333333333333335</v>
+        <v>4.4444444444444446</v>
       </c>
       <c r="L39">
         <f>AVERAGE(L8:L37)</f>
-        <v>50.85</v>
+        <v>50.344444444444449</v>
       </c>
       <c r="M39">
         <f>AVERAGE(M8:M37)</f>
-        <v>0.66666666666666663</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="N39">
         <f>AVERAGE(N8:N37)</f>
-        <v>3.8333333333333335</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
@@ -1505,41 +1628,41 @@
       <c r="N41" s="14"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="27"/>
+      <c r="C42" s="28"/>
       <c r="D42" s="8">
         <f>_xlfn.STDEV.S(D8:D37)</f>
-        <v>2.6665364551542692</v>
+        <v>4.8088460154178359</v>
       </c>
       <c r="E42" s="8">
         <f>_xlfn.STDEV.S(E8:E37)</f>
-        <v>0.81649658092772603</v>
+        <v>0.72648315725677892</v>
       </c>
       <c r="F42" s="8">
         <f>_xlfn.STDEV.S(F8:F37)</f>
-        <v>0.98319208025017457</v>
+        <v>0.8660254037844386</v>
       </c>
       <c r="H42" s="8">
         <f>_xlfn.STDEV.S(H8:H37)</f>
-        <v>10.769168955866558</v>
+        <v>12.730649804485408</v>
       </c>
       <c r="I42" s="8">
         <f>_xlfn.STDEV.S(I8:I37)</f>
-        <v>0.81649658092772603</v>
+        <v>1.3642254619787417</v>
       </c>
       <c r="J42" s="8">
         <f>_xlfn.STDEV.S(J8:J37)</f>
-        <v>1.1690451944500118</v>
+        <v>0.88191710368819731</v>
       </c>
       <c r="L42" s="8">
         <f>_xlfn.STDEV.S(L8:L37)</f>
-        <v>14.290381380495056</v>
+        <v>12.23898597833079</v>
       </c>
       <c r="M42" s="8">
         <f>_xlfn.STDEV.S(M8:M37)</f>
-        <v>0.81649658092772603</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="N42" s="14" t="e">
         <v>#DIV/0!</v>
@@ -1610,10 +1733,10 @@
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="28"/>
+      <c r="C46" s="29"/>
       <c r="D46" s="8" t="e">
         <f>D39-D45</f>
         <v>#NUM!</v>

--- a/labs/lab13/excel.xlsx
+++ b/labs/lab13/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\IST\2ano\IIPM\git\labs\lab13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DE1AE4-26EA-4308-B0BB-3346609959FF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8375EF31-AD11-40B3-A7A0-C34CD94E7B08}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>Tarefa 1:</t>
   </si>
@@ -763,7 +763,7 @@
   <dimension ref="B4:U47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1270,21 +1270,57 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C17" s="3">
         <v>10</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="11"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="18"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D17" s="5">
+        <v>9</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <v>7</v>
+      </c>
+      <c r="H17" s="17">
+        <v>18</v>
+      </c>
+      <c r="I17" s="17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="18">
+        <v>6</v>
+      </c>
+      <c r="L17" s="17">
+        <v>21</v>
+      </c>
+      <c r="M17" s="17">
+        <v>0</v>
+      </c>
+      <c r="N17" s="18">
+        <v>6</v>
+      </c>
+      <c r="P17">
+        <v>20</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R17" t="s">
+        <v>14</v>
+      </c>
+      <c r="S17">
+        <v>7</v>
+      </c>
+      <c r="T17">
+        <v>9</v>
+      </c>
+      <c r="U17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C18" s="3">
         <v>11</v>
       </c>
@@ -1298,7 +1334,7 @@
       <c r="M18" s="17"/>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C19" s="3">
         <v>12</v>
       </c>
@@ -1312,7 +1348,7 @@
       <c r="M19" s="17"/>
       <c r="N19" s="18"/>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C20" s="3">
         <v>13</v>
       </c>
@@ -1326,7 +1362,7 @@
       <c r="M20" s="17"/>
       <c r="N20" s="18"/>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C21" s="3">
         <v>14</v>
       </c>
@@ -1340,7 +1376,7 @@
       <c r="M21" s="17"/>
       <c r="N21" s="18"/>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C22" s="3">
         <v>15</v>
       </c>
@@ -1354,7 +1390,7 @@
       <c r="M22" s="17"/>
       <c r="N22" s="18"/>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C23" s="3">
         <v>16</v>
       </c>
@@ -1368,7 +1404,7 @@
       <c r="M23" s="17"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C24" s="3">
         <v>17</v>
       </c>
@@ -1382,7 +1418,7 @@
       <c r="M24" s="17"/>
       <c r="N24" s="18"/>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C25" s="3">
         <v>18</v>
       </c>
@@ -1396,7 +1432,7 @@
       <c r="M25" s="17"/>
       <c r="N25" s="18"/>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C26" s="3">
         <v>19</v>
       </c>
@@ -1410,7 +1446,7 @@
       <c r="M26" s="17"/>
       <c r="N26" s="18"/>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C27" s="3">
         <v>20</v>
       </c>
@@ -1424,7 +1460,7 @@
       <c r="M27" s="17"/>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C28" s="3">
         <v>21</v>
       </c>
@@ -1438,7 +1474,7 @@
       <c r="M28" s="17"/>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C29" s="3">
         <v>22</v>
       </c>
@@ -1452,7 +1488,7 @@
       <c r="M29" s="17"/>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C30" s="3">
         <v>23</v>
       </c>
@@ -1466,7 +1502,7 @@
       <c r="M30" s="17"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C31" s="3">
         <v>24</v>
       </c>
@@ -1480,7 +1516,7 @@
       <c r="M31" s="17"/>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C32" s="3">
         <v>25</v>
       </c>
@@ -1580,39 +1616,39 @@
       <c r="C39" s="26"/>
       <c r="D39">
         <f>AVERAGE(D8:D37)</f>
-        <v>19.083333333333332</v>
+        <v>18.074999999999999</v>
       </c>
       <c r="E39">
         <f>AVERAGE(E8:E37)</f>
-        <v>0.44444444444444442</v>
+        <v>0.4</v>
       </c>
       <c r="F39">
         <f>AVERAGE(F8:F37)</f>
-        <v>4.333333333333333</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H39">
         <f>AVERAGE(H8:H37)</f>
-        <v>41.722222222222221</v>
+        <v>39.35</v>
       </c>
       <c r="I39">
         <f>AVERAGE(I8:I37)</f>
-        <v>1.1111111111111112</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <f>AVERAGE(J8:J37)</f>
-        <v>4.4444444444444446</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L39">
         <f>AVERAGE(L8:L37)</f>
-        <v>50.344444444444449</v>
+        <v>47.410000000000004</v>
       </c>
       <c r="M39">
         <f>AVERAGE(M8:M37)</f>
-        <v>0.77777777777777779</v>
+        <v>0.7</v>
       </c>
       <c r="N39">
         <f>AVERAGE(N8:N37)</f>
-        <v>4.666666666666667</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
@@ -1634,35 +1670,35 @@
       <c r="C42" s="28"/>
       <c r="D42" s="8">
         <f>_xlfn.STDEV.S(D8:D37)</f>
-        <v>4.8088460154178359</v>
+        <v>5.5428256933324773</v>
       </c>
       <c r="E42" s="8">
         <f>_xlfn.STDEV.S(E8:E37)</f>
-        <v>0.72648315725677892</v>
+        <v>0.69920589878010109</v>
       </c>
       <c r="F42" s="8">
         <f>_xlfn.STDEV.S(F8:F37)</f>
-        <v>0.8660254037844386</v>
+        <v>1.1737877907772676</v>
       </c>
       <c r="H42" s="8">
         <f>_xlfn.STDEV.S(H8:H37)</f>
-        <v>12.730649804485408</v>
+        <v>14.154013957570873</v>
       </c>
       <c r="I42" s="8">
         <f>_xlfn.STDEV.S(I8:I37)</f>
-        <v>1.3642254619787417</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="J42" s="8">
         <f>_xlfn.STDEV.S(J8:J37)</f>
-        <v>0.88191710368819731</v>
+        <v>0.96609178307929622</v>
       </c>
       <c r="L42" s="8">
         <f>_xlfn.STDEV.S(L8:L37)</f>
-        <v>12.23898597833079</v>
+        <v>14.807389296489019</v>
       </c>
       <c r="M42" s="8">
         <f>_xlfn.STDEV.S(M8:M37)</f>
-        <v>0.83333333333333337</v>
+        <v>0.82327260234856459</v>
       </c>
       <c r="N42" s="14" t="e">
         <v>#DIV/0!</v>

--- a/labs/lab13/excel.xlsx
+++ b/labs/lab13/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\IST\2ano\IIPM\git\labs\lab13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8375EF31-AD11-40B3-A7A0-C34CD94E7B08}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0AF996-6A58-4849-B71A-2B3678A4345E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
   <si>
     <t>Tarefa 1:</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>cabeleireiro</t>
+  </si>
+  <si>
+    <t>20 anos</t>
+  </si>
+  <si>
+    <t>19 anos</t>
   </si>
 </sst>
 </file>
@@ -762,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1301,8 +1307,8 @@
       <c r="N17" s="18">
         <v>6</v>
       </c>
-      <c r="P17">
-        <v>20</v>
+      <c r="P17" t="s">
+        <v>31</v>
       </c>
       <c r="Q17" t="s">
         <v>10</v>
@@ -1324,15 +1330,51 @@
       <c r="C18" s="3">
         <v>11</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="11"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="18"/>
+      <c r="D18" s="5">
+        <v>11</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="11">
+        <v>7</v>
+      </c>
+      <c r="H18" s="17">
+        <v>26</v>
+      </c>
+      <c r="I18" s="17">
+        <v>1</v>
+      </c>
+      <c r="J18" s="18">
+        <v>6</v>
+      </c>
+      <c r="L18" s="17">
+        <v>25</v>
+      </c>
+      <c r="M18" s="17">
+        <v>1</v>
+      </c>
+      <c r="N18" s="18">
+        <v>7</v>
+      </c>
+      <c r="P18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>10</v>
+      </c>
+      <c r="R18" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>9</v>
+      </c>
+      <c r="U18" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C19" s="3">
@@ -1616,19 +1658,19 @@
       <c r="C39" s="26"/>
       <c r="D39">
         <f>AVERAGE(D8:D37)</f>
-        <v>18.074999999999999</v>
+        <v>17.431818181818183</v>
       </c>
       <c r="E39">
         <f>AVERAGE(E8:E37)</f>
-        <v>0.4</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="F39">
         <f>AVERAGE(F8:F37)</f>
-        <v>4.5999999999999996</v>
+        <v>4.8181818181818183</v>
       </c>
       <c r="H39">
         <f>AVERAGE(H8:H37)</f>
-        <v>39.35</v>
+        <v>38.136363636363633</v>
       </c>
       <c r="I39">
         <f>AVERAGE(I8:I37)</f>
@@ -1636,19 +1678,19 @@
       </c>
       <c r="J39">
         <f>AVERAGE(J8:J37)</f>
-        <v>4.5999999999999996</v>
+        <v>4.7272727272727275</v>
       </c>
       <c r="L39">
         <f>AVERAGE(L8:L37)</f>
-        <v>47.410000000000004</v>
+        <v>45.372727272727275</v>
       </c>
       <c r="M39">
         <f>AVERAGE(M8:M37)</f>
-        <v>0.7</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="N39">
         <f>AVERAGE(N8:N37)</f>
-        <v>4.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
@@ -1670,35 +1712,35 @@
       <c r="C42" s="28"/>
       <c r="D42" s="8">
         <f>_xlfn.STDEV.S(D8:D37)</f>
-        <v>5.5428256933324773</v>
+        <v>5.6746045116498074</v>
       </c>
       <c r="E42" s="8">
         <f>_xlfn.STDEV.S(E8:E37)</f>
-        <v>0.69920589878010109</v>
+        <v>0.67419986246324204</v>
       </c>
       <c r="F42" s="8">
         <f>_xlfn.STDEV.S(F8:F37)</f>
-        <v>1.1737877907772676</v>
+        <v>1.3280197150781921</v>
       </c>
       <c r="H42" s="8">
         <f>_xlfn.STDEV.S(H8:H37)</f>
-        <v>14.154013957570873</v>
+        <v>14.018007898932908</v>
       </c>
       <c r="I42" s="8">
         <f>_xlfn.STDEV.S(I8:I37)</f>
-        <v>1.3333333333333333</v>
+        <v>1.2649110640673518</v>
       </c>
       <c r="J42" s="8">
         <f>_xlfn.STDEV.S(J8:J37)</f>
-        <v>0.96609178307929622</v>
+        <v>1.0090499582190262</v>
       </c>
       <c r="L42" s="8">
         <f>_xlfn.STDEV.S(L8:L37)</f>
-        <v>14.807389296489019</v>
+        <v>15.588078195152271</v>
       </c>
       <c r="M42" s="8">
         <f>_xlfn.STDEV.S(M8:M37)</f>
-        <v>0.82327260234856459</v>
+        <v>0.78624539310689645</v>
       </c>
       <c r="N42" s="14" t="e">
         <v>#DIV/0!</v>
